--- a/data/trans_bre/P25_4-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_4-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-2,6</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-37,46%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-33,99%</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>-39,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>-39,36%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26,5%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15,63%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>-47,71%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,99%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 0,63</t>
+          <t>-4,02; 0,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 0,4</t>
+          <t>-4,86; 0,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,48</t>
+          <t>-1,06; 2,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; -0,63</t>
+          <t>-1,66; 3,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,65; 24,71</t>
+          <t>-4,82; -0,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-66,72; 15,32</t>
+          <t>-1,91; 2,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,13; 132,99</t>
+          <t>-67,32; 3,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-68,4; -12,57</t>
+          <t>-70,93; 14,01</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-28,53; 142,5</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-41,93; 168,54</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-68,96; -16,81</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-33,85; 76,82</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-1,76</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>60,07%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,98%</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-36,23%</t>
+          <t>74,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-31,54%</t>
+          <t>-14,42%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-23,63%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-63,67%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-31,47%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>74,26%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 3,19</t>
+          <t>-0,59; 4,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,49</t>
+          <t>-2,22; 1,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 1,04</t>
+          <t>-3,54; 3,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 1,89</t>
+          <t>-5,08; -0,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,52; 425,44</t>
+          <t>-6,72; 1,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,04; 93,71</t>
+          <t>-1,38; 5,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-73,52; 43,33</t>
+          <t>-40,24; 536,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-73,32; 67,04</t>
+          <t>-61,6; 105,09</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-66,46; 120,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-86,35; -16,44</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-74,84; 68,01</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-39,62; 309,52</t>
         </is>
       </c>
     </row>
@@ -820,7 +932,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -830,30 +942,50 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,78%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,38%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-38,95%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-11,35%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-39,64%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>150,69%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 4,66</t>
+          <t>-5,79; 5,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 3,75</t>
+          <t>-5,82; 3,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 1,87</t>
+          <t>-9,4; 1,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-0,98; 8,57</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-75,74; 275,47</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-81,73; 212,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-78,67; 51,91</t>
+          <t>-73,97; 268,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-79,6; 250,6</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-81,57; 56,65</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-15,83%</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,26%</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,88%</t>
+          <t>-13,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-44,17%</t>
+          <t>-28,49%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-9,75%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-14,22%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-44,16%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>21,41%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,91</t>
+          <t>-2,04; 1,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 0,44</t>
+          <t>-2,7; 0,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,79</t>
+          <t>-2,01; 1,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,35; -0,6</t>
+          <t>-2,02; 1,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,9; 36,25</t>
+          <t>-4,3; -0,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,22; 16,29</t>
+          <t>-1,02; 2,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 28,06</t>
+          <t>-47,82; 40,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,25; -11,48</t>
+          <t>-53,95; 17,15</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-43,21; 42,65</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-49,51; 43,26</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-62,64; -10,51</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-21,26; 78,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_4-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_4-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,87</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-2,6</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-39,95%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-39,36%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>26,5%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>15,63%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-47,71%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>9,99%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.96852093572564</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.167029531554881</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.5673567088997588</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.3335051114437784</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-2.604623841795842</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.4799786114552784</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.416734177742366</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.4273865796159496</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1884091894209358</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1030899673477984</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.477083338111522</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.1071397207243179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 0,06</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,86; 0,18</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 2,57</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,66; 3,34</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; -0,8</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 2,62</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-67,32; 3,0</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-70,93; 14,01</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-28,53; 142,5</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-41,93; 168,54</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-68,96; -16,81</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-33,85; 76,82</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.165488863752518</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.233675317959492</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.422924791514211</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.862003787794541</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.821729314847375</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-1.889385063277009</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6872619457517539</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.7188023001107161</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.3567252891191173</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4461186848587869</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.6895978611950309</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.337659126579018</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.06157369826604478</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.0089650651684732</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.356586197823356</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.089475718845265</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.8016039184403807</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.651958292966129</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.006208287315646801</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.05706807953005995</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.286977282628387</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.556006815214663</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>-0.1680956414227472</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.7796159267182502</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,68</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-1,76</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,31</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>74,21%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-14,42%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-23,63%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-63,67%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-31,47%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>74,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 4,71</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 1,96</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,54; 3,23</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,08; -0,68</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-6,72; 1,96</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-1,38; 5,76</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-40,24; 536,28</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-61,6; 105,09</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-66,46; 120,75</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-86,35; -16,44</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-74,84; 68,01</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-39,62; 309,52</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.8091973634234938</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.4394818535489557</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.243914895130519</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.653625851485692</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-1.759367790376627</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>2.041464544763404</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.5604426918142118</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.155536032914989</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.2898425653792127</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.6323638633749716</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.3147358729455202</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.6386049002120785</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,82</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-11,35%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-39,64%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>150,69%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.742479570065633</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.242702489178598</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.767958513110797</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.046350958117831</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-6.720578999834999</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-1.74552739991538</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.442603689379853</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6305439357929854</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.6888776373403382</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.8630120744244457</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.7483563042076949</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.4325801212973618</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,79; 5,65</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,82; 3,92</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,4; 1,84</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,98; 8,57</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-73,97; 268,39</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-79,6; 250,6</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-81,57; 56,65</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.212723042779666</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.698279764808453</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.662139066286946</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-0.6303690050468113</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.963024337245993</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>5.337388114688634</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.295567689858332</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.9627720448499866</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.8940593809168184</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>-0.1430036752918425</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.6800974783726985</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>2.869393110403398</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,241 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,15</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-2,42</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-13,7%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-28,49%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-9,75%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-14,22%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-44,16%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>21,41%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.3150141819163454</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.3013433752168726</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.637962773279158</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.608698814787816</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.07114779269979642</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.07433927723702198</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.3808172385050062</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>1.562085004768333</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 1,12</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 0,5</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,01; 1,31</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 1,16</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-4,3; -0,53</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 2,62</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-47,82; 40,32</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-53,95; 17,15</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-43,21; 42,65</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-49,51; 43,26</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-62,64; -10,51</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-21,26; 78,77</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.687996969844447</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.526064952103323</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.041492209669862</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.8706979033288395</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.7221798785803327</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8004756532712848</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.8109241825433717</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.312377162745638</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.00348004715243</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.905042636270436</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.637141350582402</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>2.859596180890433</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.532949274524371</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.6124464414927677</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.5932689235268445</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.244704088105327</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.5471608726496241</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.5614868231015386</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-2.424450519920616</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.8534422801420894</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1755074689419993</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.3075553194281838</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1366639714898431</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1637447788554195</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.4415504013678188</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.2047639415004736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.032086846564585</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.866162882387625</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.22556771003117</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.093802478047944</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-4.29759013733309</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-1.026889902976546</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4923687821983925</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5543228422675882</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.448850909569582</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.5132612911585437</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.6264107793759971</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.2151523619977993</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.7932246230058516</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3681533812442455</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.146728615979468</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.08442498454529</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.5311281830619561</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>2.580485846620591</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3337055978391785</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.1322716952965818</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.4022342148227335</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.3960771612549642</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>-0.1051032374718333</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.7875189685495538</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1173,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
